--- a/Day08/result/kto_교포.xlsx
+++ b/Day08/result/kto_교포.xlsx
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15526</v>
+        <v>22537</v>
       </c>
       <c r="G2" t="n">
-        <v>15526</v>
+        <v>22537</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>15526</v>
+        <v>21338</v>
       </c>
       <c r="G3" t="n">
-        <v>15526</v>
+        <v>21338</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15526</v>
+        <v>27781</v>
       </c>
       <c r="G4" t="n">
-        <v>15526</v>
+        <v>27781</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15526</v>
+        <v>27697</v>
       </c>
       <c r="G5" t="n">
-        <v>15526</v>
+        <v>27697</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>15526</v>
+        <v>27460</v>
       </c>
       <c r="G6" t="n">
-        <v>15526</v>
+        <v>27460</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15526</v>
+        <v>28956</v>
       </c>
       <c r="G7" t="n">
-        <v>15526</v>
+        <v>28956</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15526</v>
+        <v>28148</v>
       </c>
       <c r="G8" t="n">
-        <v>15526</v>
+        <v>28148</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>15526</v>
+        <v>26298</v>
       </c>
       <c r="G9" t="n">
-        <v>15526</v>
+        <v>26298</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>15526</v>
+        <v>26715</v>
       </c>
       <c r="G10" t="n">
-        <v>15526</v>
+        <v>26715</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>15526</v>
+        <v>29508</v>
       </c>
       <c r="G11" t="n">
-        <v>15526</v>
+        <v>29508</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -919,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>15526</v>
+        <v>26142</v>
       </c>
       <c r="G12" t="n">
-        <v>15526</v>
+        <v>26142</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>15526</v>
+        <v>26914</v>
       </c>
       <c r="G13" t="n">
-        <v>15526</v>
+        <v>26914</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1001,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>15526</v>
+        <v>22658</v>
       </c>
       <c r="G14" t="n">
-        <v>15526</v>
+        <v>22658</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1042,10 +1042,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>15526</v>
+        <v>21519</v>
       </c>
       <c r="G15" t="n">
-        <v>15526</v>
+        <v>21519</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15526</v>
+        <v>30429</v>
       </c>
       <c r="G16" t="n">
-        <v>15526</v>
+        <v>30429</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>15526</v>
+        <v>28367</v>
       </c>
       <c r="G17" t="n">
-        <v>15526</v>
+        <v>28367</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1165,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>15526</v>
+        <v>27841</v>
       </c>
       <c r="G18" t="n">
-        <v>15526</v>
+        <v>27841</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>15526</v>
+        <v>28541</v>
       </c>
       <c r="G19" t="n">
-        <v>15526</v>
+        <v>28541</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>15526</v>
+        <v>28389</v>
       </c>
       <c r="G20" t="n">
-        <v>15526</v>
+        <v>28389</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>15526</v>
+        <v>27845</v>
       </c>
       <c r="G21" t="n">
-        <v>15526</v>
+        <v>27845</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>15526</v>
+        <v>28116</v>
       </c>
       <c r="G22" t="n">
-        <v>15526</v>
+        <v>28116</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>15526</v>
+        <v>29744</v>
       </c>
       <c r="G23" t="n">
-        <v>15526</v>
+        <v>29744</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>15526</v>
+        <v>26565</v>
       </c>
       <c r="G24" t="n">
-        <v>15526</v>
+        <v>26565</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>15526</v>
+        <v>27246</v>
       </c>
       <c r="G25" t="n">
-        <v>15526</v>
+        <v>27246</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>15526</v>
+        <v>23709</v>
       </c>
       <c r="G26" t="n">
-        <v>15526</v>
+        <v>23709</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>15526</v>
+        <v>22073</v>
       </c>
       <c r="G27" t="n">
-        <v>15526</v>
+        <v>22073</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15526</v>
+        <v>28459</v>
       </c>
       <c r="G28" t="n">
-        <v>15526</v>
+        <v>28459</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>15526</v>
+        <v>29054</v>
       </c>
       <c r="G29" t="n">
-        <v>15526</v>
+        <v>29054</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>15526</v>
+        <v>29413</v>
       </c>
       <c r="G30" t="n">
-        <v>15526</v>
+        <v>29413</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1698,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15526</v>
+        <v>28842</v>
       </c>
       <c r="G31" t="n">
-        <v>15526</v>
+        <v>28842</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>15526</v>
+        <v>28678</v>
       </c>
       <c r="G32" t="n">
-        <v>15526</v>
+        <v>28678</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>15526</v>
+        <v>27233</v>
       </c>
       <c r="G33" t="n">
-        <v>15526</v>
+        <v>27233</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>15526</v>
+        <v>27726</v>
       </c>
       <c r="G34" t="n">
-        <v>15526</v>
+        <v>27726</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>15526</v>
+        <v>30966</v>
       </c>
       <c r="G35" t="n">
-        <v>15526</v>
+        <v>30966</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>15526</v>
+        <v>26691</v>
       </c>
       <c r="G36" t="n">
-        <v>15526</v>
+        <v>26691</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15526</v>
+        <v>26714</v>
       </c>
       <c r="G37" t="n">
-        <v>15526</v>
+        <v>26714</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>15526</v>
+        <v>22007</v>
       </c>
       <c r="G38" t="n">
-        <v>15526</v>
+        <v>22007</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2026,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>15526</v>
+        <v>22091</v>
       </c>
       <c r="G39" t="n">
-        <v>15526</v>
+        <v>22091</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>15526</v>
+        <v>27497</v>
       </c>
       <c r="G40" t="n">
-        <v>15526</v>
+        <v>27497</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2108,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>15526</v>
+        <v>26602</v>
       </c>
       <c r="G41" t="n">
-        <v>15526</v>
+        <v>26602</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2149,10 +2149,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>15526</v>
+        <v>27273</v>
       </c>
       <c r="G42" t="n">
-        <v>15526</v>
+        <v>27273</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2190,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>15526</v>
+        <v>27158</v>
       </c>
       <c r="G43" t="n">
-        <v>15526</v>
+        <v>27158</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2231,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>15526</v>
+        <v>25370</v>
       </c>
       <c r="G44" t="n">
-        <v>15526</v>
+        <v>25370</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>15526</v>
+        <v>26295</v>
       </c>
       <c r="G45" t="n">
-        <v>15526</v>
+        <v>26295</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2313,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>15526</v>
+        <v>26272</v>
       </c>
       <c r="G46" t="n">
-        <v>15526</v>
+        <v>26272</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2354,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>15526</v>
+        <v>29044</v>
       </c>
       <c r="G47" t="n">
-        <v>15526</v>
+        <v>29044</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2395,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>15526</v>
+        <v>24824</v>
       </c>
       <c r="G48" t="n">
-        <v>15526</v>
+        <v>24824</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2436,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>15526</v>
+        <v>25062</v>
       </c>
       <c r="G49" t="n">
-        <v>15526</v>
+        <v>25062</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2477,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>15526</v>
+        <v>21203</v>
       </c>
       <c r="G50" t="n">
-        <v>15526</v>
+        <v>21203</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>15526</v>
+        <v>19953</v>
       </c>
       <c r="G51" t="n">
-        <v>15526</v>
+        <v>19953</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2559,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>15526</v>
+        <v>26185</v>
       </c>
       <c r="G52" t="n">
-        <v>15526</v>
+        <v>26185</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>15526</v>
+        <v>26555</v>
       </c>
       <c r="G53" t="n">
-        <v>15526</v>
+        <v>26555</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2641,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>15526</v>
+        <v>26314</v>
       </c>
       <c r="G54" t="n">
-        <v>15526</v>
+        <v>26314</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>15526</v>
+        <v>25079</v>
       </c>
       <c r="G55" t="n">
-        <v>15526</v>
+        <v>25079</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2723,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>15526</v>
+        <v>23427</v>
       </c>
       <c r="G56" t="n">
-        <v>15526</v>
+        <v>23427</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>15526</v>
+        <v>24423</v>
       </c>
       <c r="G57" t="n">
-        <v>15526</v>
+        <v>24423</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2805,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>15526</v>
+        <v>25652</v>
       </c>
       <c r="G58" t="n">
-        <v>15526</v>
+        <v>25652</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>15526</v>
+        <v>27134</v>
       </c>
       <c r="G59" t="n">
-        <v>15526</v>
+        <v>27134</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2887,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>15526</v>
+        <v>22922</v>
       </c>
       <c r="G60" t="n">
-        <v>15526</v>
+        <v>22922</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>15526</v>
+        <v>23742</v>
       </c>
       <c r="G61" t="n">
-        <v>15526</v>
+        <v>23742</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>15526</v>
+        <v>19115</v>
       </c>
       <c r="G62" t="n">
-        <v>15526</v>
+        <v>19115</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>15526</v>
+        <v>18244</v>
       </c>
       <c r="G63" t="n">
-        <v>15526</v>
+        <v>18244</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3051,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>15526</v>
+        <v>25611</v>
       </c>
       <c r="G64" t="n">
-        <v>15526</v>
+        <v>25611</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>15526</v>
+        <v>25246</v>
       </c>
       <c r="G65" t="n">
-        <v>15526</v>
+        <v>25246</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>15526</v>
+        <v>25552</v>
       </c>
       <c r="G66" t="n">
-        <v>15526</v>
+        <v>25552</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3174,10 +3174,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>15526</v>
+        <v>17997</v>
       </c>
       <c r="G67" t="n">
-        <v>15526</v>
+        <v>17997</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3215,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>15526</v>
+        <v>18899</v>
       </c>
       <c r="G68" t="n">
-        <v>15526</v>
+        <v>18899</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3256,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>15526</v>
+        <v>21811</v>
       </c>
       <c r="G69" t="n">
-        <v>15526</v>
+        <v>21811</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3297,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>15526</v>
+        <v>24404</v>
       </c>
       <c r="G70" t="n">
-        <v>15526</v>
+        <v>24404</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3338,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>15526</v>
+        <v>27940</v>
       </c>
       <c r="G71" t="n">
-        <v>15526</v>
+        <v>27940</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3379,10 +3379,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>15526</v>
+        <v>22435</v>
       </c>
       <c r="G72" t="n">
-        <v>15526</v>
+        <v>22435</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3420,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>15526</v>
+        <v>22939</v>
       </c>
       <c r="G73" t="n">
-        <v>15526</v>
+        <v>22939</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3461,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>15526</v>
+        <v>18390</v>
       </c>
       <c r="G74" t="n">
-        <v>15526</v>
+        <v>18390</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>15526</v>
+        <v>17892</v>
       </c>
       <c r="G75" t="n">
-        <v>15526</v>
+        <v>17892</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3543,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>15526</v>
+        <v>25130</v>
       </c>
       <c r="G76" t="n">
-        <v>15526</v>
+        <v>25130</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>15526</v>
+        <v>25061</v>
       </c>
       <c r="G77" t="n">
-        <v>15526</v>
+        <v>25061</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3625,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>15526</v>
+        <v>24488</v>
       </c>
       <c r="G78" t="n">
-        <v>15526</v>
+        <v>24488</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>15526</v>
+        <v>23953</v>
       </c>
       <c r="G79" t="n">
-        <v>15526</v>
+        <v>23953</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>15526</v>
+        <v>21917</v>
       </c>
       <c r="G80" t="n">
-        <v>15526</v>
+        <v>21917</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>15526</v>
+        <v>22819</v>
       </c>
       <c r="G81" t="n">
-        <v>15526</v>
+        <v>22819</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3789,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>15526</v>
+        <v>24878</v>
       </c>
       <c r="G82" t="n">
-        <v>15526</v>
+        <v>24878</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>15526</v>
+        <v>26096</v>
       </c>
       <c r="G83" t="n">
-        <v>15526</v>
+        <v>26096</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3871,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>15526</v>
+        <v>23149</v>
       </c>
       <c r="G84" t="n">
-        <v>15526</v>
+        <v>23149</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>15526</v>
+        <v>22765</v>
       </c>
       <c r="G85" t="n">
-        <v>15526</v>
+        <v>22765</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3953,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>15526</v>
+        <v>19428</v>
       </c>
       <c r="G86" t="n">
-        <v>15526</v>
+        <v>19428</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>15526</v>
+        <v>17084</v>
       </c>
       <c r="G87" t="n">
-        <v>15526</v>
+        <v>17084</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -4035,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>15526</v>
+        <v>24786</v>
       </c>
       <c r="G88" t="n">
-        <v>15526</v>
+        <v>24786</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -4076,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>15526</v>
+        <v>23735</v>
       </c>
       <c r="G89" t="n">
-        <v>15526</v>
+        <v>23735</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -4117,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>15526</v>
+        <v>23380</v>
       </c>
       <c r="G90" t="n">
-        <v>15526</v>
+        <v>23380</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -4158,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>15526</v>
+        <v>22691</v>
       </c>
       <c r="G91" t="n">
-        <v>15526</v>
+        <v>22691</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -4199,10 +4199,10 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>15526</v>
+        <v>21016</v>
       </c>
       <c r="G92" t="n">
-        <v>15526</v>
+        <v>21016</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -4240,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>15526</v>
+        <v>22438</v>
       </c>
       <c r="G93" t="n">
-        <v>15526</v>
+        <v>22438</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -4281,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>15526</v>
+        <v>23472</v>
       </c>
       <c r="G94" t="n">
-        <v>15526</v>
+        <v>23472</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -4322,10 +4322,10 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>15526</v>
+        <v>25175</v>
       </c>
       <c r="G95" t="n">
-        <v>15526</v>
+        <v>25175</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -4363,10 +4363,10 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>15526</v>
+        <v>23233</v>
       </c>
       <c r="G96" t="n">
-        <v>15526</v>
+        <v>23233</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>15526</v>
+        <v>22416</v>
       </c>
       <c r="G97" t="n">
-        <v>15526</v>
+        <v>22416</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -4445,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>15526</v>
+        <v>19196</v>
       </c>
       <c r="G98" t="n">
-        <v>15526</v>
+        <v>19196</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>15526</v>
+        <v>16867</v>
       </c>
       <c r="G99" t="n">
-        <v>15526</v>
+        <v>16867</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -4527,10 +4527,10 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>15526</v>
+        <v>23696</v>
       </c>
       <c r="G100" t="n">
-        <v>15526</v>
+        <v>23696</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -4568,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>15526</v>
+        <v>23865</v>
       </c>
       <c r="G101" t="n">
-        <v>15526</v>
+        <v>23865</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -4609,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>15526</v>
+        <v>23181</v>
       </c>
       <c r="G102" t="n">
-        <v>15526</v>
+        <v>23181</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -4650,10 +4650,10 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>15526</v>
+        <v>21287</v>
       </c>
       <c r="G103" t="n">
-        <v>15526</v>
+        <v>21287</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4691,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>15526</v>
+        <v>19502</v>
       </c>
       <c r="G104" t="n">
-        <v>15526</v>
+        <v>19502</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -4732,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>15526</v>
+        <v>20127</v>
       </c>
       <c r="G105" t="n">
-        <v>15526</v>
+        <v>20127</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4773,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>15526</v>
+        <v>19540</v>
       </c>
       <c r="G106" t="n">
-        <v>15526</v>
+        <v>19540</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4814,10 +4814,10 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>15526</v>
+        <v>24518</v>
       </c>
       <c r="G107" t="n">
-        <v>15526</v>
+        <v>24518</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4855,10 +4855,10 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>15526</v>
+        <v>20456</v>
       </c>
       <c r="G108" t="n">
-        <v>15526</v>
+        <v>20456</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4896,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>15526</v>
+        <v>18838</v>
       </c>
       <c r="G109" t="n">
-        <v>15526</v>
+        <v>18838</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4978,10 +4978,10 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>15526</v>
+        <v>14459</v>
       </c>
       <c r="G111" t="n">
-        <v>15526</v>
+        <v>14459</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -5019,10 +5019,10 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>15526</v>
+        <v>19225</v>
       </c>
       <c r="G112" t="n">
-        <v>15526</v>
+        <v>19225</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -5060,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>15526</v>
+        <v>20174</v>
       </c>
       <c r="G113" t="n">
-        <v>15526</v>
+        <v>20174</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -5101,10 +5101,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>15526</v>
+        <v>18788</v>
       </c>
       <c r="G114" t="n">
-        <v>15526</v>
+        <v>18788</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -5142,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>15526</v>
+        <v>17111</v>
       </c>
       <c r="G115" t="n">
-        <v>15526</v>
+        <v>17111</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -5183,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>15526</v>
+        <v>15587</v>
       </c>
       <c r="G116" t="n">
-        <v>15526</v>
+        <v>15587</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -5224,10 +5224,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>15526</v>
+        <v>16560</v>
       </c>
       <c r="G117" t="n">
-        <v>15526</v>
+        <v>16560</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -5265,10 +5265,10 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>15526</v>
+        <v>16619</v>
       </c>
       <c r="G118" t="n">
-        <v>15526</v>
+        <v>16619</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -5306,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>15526</v>
+        <v>17939</v>
       </c>
       <c r="G119" t="n">
-        <v>15526</v>
+        <v>17939</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>15526</v>
+        <v>15233</v>
       </c>
       <c r="G120" t="n">
-        <v>15526</v>
+        <v>15233</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>15526</v>
+        <v>5281</v>
       </c>
       <c r="G121" t="n">
-        <v>15526</v>
+        <v>5281</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -5429,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>15526</v>
+        <v>8792</v>
       </c>
       <c r="G122" t="n">
-        <v>15526</v>
+        <v>8792</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -5470,10 +5470,10 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>15526</v>
+        <v>7609</v>
       </c>
       <c r="G123" t="n">
-        <v>15526</v>
+        <v>7609</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -5511,10 +5511,10 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>15526</v>
+        <v>1615</v>
       </c>
       <c r="G124" t="n">
-        <v>15526</v>
+        <v>1615</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -5552,10 +5552,10 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>15526</v>
+        <v>698</v>
       </c>
       <c r="G125" t="n">
-        <v>15526</v>
+        <v>698</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -5593,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>15526</v>
+        <v>790</v>
       </c>
       <c r="G126" t="n">
-        <v>15526</v>
+        <v>790</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
